--- a/table.xlsx
+++ b/table.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya\Documents\GitHub\TantouMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25245" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25245" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題マスタ" sheetId="1" r:id="rId1"/>
-    <sheet name="集計テーブル" sheetId="2" r:id="rId2"/>
+    <sheet name="回答" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>章</t>
     <rPh sb="0" eb="1">
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>branch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>quiz</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,6 +261,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,15 +704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -782,25 +782,25 @@
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>5</v>
@@ -872,12 +872,12 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -888,21 +888,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="9" width="14.75" customWidth="1"/>
+    <col min="3" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -919,28 +919,34 @@
       <c r="F1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -948,39 +954,45 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -990,13 +1002,16 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
